--- a/nari/category_crawling/training_data_categories_final.xlsx
+++ b/nari/category_crawling/training_data_categories_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk_jo\Desktop\Project\titanic\nari\category_crawling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEC2FEF-F6E8-4389-999D-E3281B6417DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F49DC6-B319-46AB-922E-734A32D1DE50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="21435" yWindow="2685" windowWidth="14400" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8531" uniqueCount="2209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8681" uniqueCount="2222">
   <si>
     <t>상품군</t>
   </si>
@@ -6627,6 +6627,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -6650,6 +6651,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>/</t>
     </r>
@@ -7158,61 +7160,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>세탁세제</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>세탁세제</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>안마기/마사지기</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>원예/가드닝</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>방향제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>공기청정</t>
-    </r>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -7315,10 +7262,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>손/발건강용품</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>건강식품</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -7332,6 +7275,192 @@
   </si>
   <si>
     <t>간편식</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>잡화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>잡화</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가전디지털</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가구/침구</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>인테리어</t>
+  </si>
+  <si>
+    <t>인테리어</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소용품</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스/건강용품</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스크</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>차량용 생활용품</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>침구</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>청소용품</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헬스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건강용품</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>가구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>침구</t>
+    </r>
+  </si>
+  <si>
+    <t>잡화</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>가전디지털</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>헬스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>건강용품</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>헬스/건강용품</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>결혼준비</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -7339,7 +7468,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7413,6 +7542,12 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -7455,7 +7590,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -7472,7 +7607,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -7689,10 +7828,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G1693"/>
+  <dimension ref="A1:H1693"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I291" sqref="I291"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="79" workbookViewId="0">
+      <selection activeCell="D488" sqref="D488"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -13064,7 +13203,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="269" spans="1:7" ht="15.75" customHeight="1">
+    <row r="269" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A269" s="1">
         <v>26</v>
       </c>
@@ -13084,10 +13223,10 @@
         <v>309</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" ht="15.75" customHeight="1">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A270" s="1">
         <v>72</v>
       </c>
@@ -13107,10 +13246,10 @@
         <v>313</v>
       </c>
       <c r="G270" s="8" t="s">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" ht="15.75" customHeight="1">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A271" s="1">
         <v>87</v>
       </c>
@@ -13133,7 +13272,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="272" spans="1:7" ht="15.75" customHeight="1">
+    <row r="272" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A272" s="1">
         <v>132</v>
       </c>
@@ -13153,10 +13292,10 @@
         <v>320</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" ht="15.75" customHeight="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A273" s="1">
         <v>153</v>
       </c>
@@ -13179,7 +13318,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="15.75" customHeight="1">
+    <row r="274" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A274" s="1">
         <v>154</v>
       </c>
@@ -13202,7 +13341,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="15.75" customHeight="1">
+    <row r="275" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A275" s="1">
         <v>232</v>
       </c>
@@ -13225,7 +13364,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="15.75" customHeight="1">
+    <row r="276" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A276" s="1">
         <v>237</v>
       </c>
@@ -13248,7 +13387,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="15.75" customHeight="1">
+    <row r="277" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A277" s="1">
         <v>241</v>
       </c>
@@ -13271,7 +13410,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="278" spans="1:7" ht="15.75" customHeight="1">
+    <row r="278" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A278" s="1">
         <v>292</v>
       </c>
@@ -13294,7 +13433,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="279" spans="1:7" ht="15.75" customHeight="1">
+    <row r="279" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A279" s="1">
         <v>319</v>
       </c>
@@ -13314,10 +13453,10 @@
         <v>336</v>
       </c>
       <c r="G279" s="8" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" ht="15.75" customHeight="1">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A280" s="1">
         <v>320</v>
       </c>
@@ -13337,10 +13476,10 @@
         <v>336</v>
       </c>
       <c r="G280" s="8" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" ht="15.75" customHeight="1">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A281" s="1">
         <v>401</v>
       </c>
@@ -13363,7 +13502,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="282" spans="1:7" ht="15.75" customHeight="1">
+    <row r="282" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A282" s="1">
         <v>402</v>
       </c>
@@ -13386,7 +13525,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="283" spans="1:7" ht="15.75" customHeight="1">
+    <row r="283" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A283" s="1">
         <v>436</v>
       </c>
@@ -13409,7 +13548,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="284" spans="1:7" ht="15.75" customHeight="1">
+    <row r="284" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A284" s="1">
         <v>470</v>
       </c>
@@ -13429,10 +13568,10 @@
         <v>335</v>
       </c>
       <c r="G284" s="8" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" ht="15.75" customHeight="1">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A285" s="1">
         <v>558</v>
       </c>
@@ -13452,10 +13591,10 @@
         <v>345</v>
       </c>
       <c r="G285" s="8" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" ht="15.75" customHeight="1">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A286" s="1">
         <v>592</v>
       </c>
@@ -13478,7 +13617,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="287" spans="1:7" ht="15.75" customHeight="1">
+    <row r="287" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A287" s="1">
         <v>593</v>
       </c>
@@ -13501,7 +13640,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="288" spans="1:7" ht="15.75" customHeight="1">
+    <row r="288" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A288" s="1">
         <v>629</v>
       </c>
@@ -13524,7 +13663,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="289" spans="1:7" ht="15.75" customHeight="1">
+    <row r="289" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A289" s="1">
         <v>716</v>
       </c>
@@ -13547,7 +13686,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="15.75" customHeight="1">
+    <row r="290" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A290" s="1">
         <v>727</v>
       </c>
@@ -13570,7 +13709,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="291" spans="1:7" ht="15.75" customHeight="1">
+    <row r="291" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A291" s="1">
         <v>757</v>
       </c>
@@ -13593,7 +13732,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="292" spans="1:7" ht="15.75" customHeight="1">
+    <row r="292" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A292" s="1">
         <v>762</v>
       </c>
@@ -13616,7 +13755,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="293" spans="1:7" ht="15.75" customHeight="1">
+    <row r="293" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A293" s="1">
         <v>776</v>
       </c>
@@ -13639,7 +13778,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="15.75" customHeight="1">
+    <row r="294" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A294" s="1">
         <v>843</v>
       </c>
@@ -13662,7 +13801,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="15.75" customHeight="1">
+    <row r="295" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A295" s="1">
         <v>918</v>
       </c>
@@ -13682,10 +13821,10 @@
         <v>357</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>2206</v>
-      </c>
-    </row>
-    <row r="296" spans="1:7" ht="15.75" customHeight="1">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A296" s="1">
         <v>959</v>
       </c>
@@ -13708,7 +13847,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="15.75" customHeight="1">
+    <row r="297" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A297" s="1">
         <v>994</v>
       </c>
@@ -13731,7 +13870,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="15.75" customHeight="1">
+    <row r="298" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A298" s="1">
         <v>995</v>
       </c>
@@ -13754,7 +13893,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="15.75" customHeight="1">
+    <row r="299" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A299" s="1">
         <v>1056</v>
       </c>
@@ -13777,7 +13916,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="300" spans="1:7" ht="15.75" customHeight="1">
+    <row r="300" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A300" s="1">
         <v>1081</v>
       </c>
@@ -13800,7 +13939,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="15.75" customHeight="1">
+    <row r="301" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A301" s="1">
         <v>1082</v>
       </c>
@@ -13823,7 +13962,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="15.75" customHeight="1">
+    <row r="302" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A302" s="1">
         <v>1083</v>
       </c>
@@ -13846,7 +13985,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="15.75" customHeight="1">
+    <row r="303" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A303" s="1">
         <v>1172</v>
       </c>
@@ -13869,7 +14008,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="15.75" customHeight="1">
+    <row r="304" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A304" s="1">
         <v>1192</v>
       </c>
@@ -13892,7 +14031,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="305" spans="1:7" ht="15.75" customHeight="1">
+    <row r="305" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A305" s="1">
         <v>1283</v>
       </c>
@@ -13915,7 +14054,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="306" spans="1:7" ht="15.75" customHeight="1">
+    <row r="306" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A306" s="1">
         <v>1292</v>
       </c>
@@ -13938,7 +14077,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="307" spans="1:7" ht="15.75" customHeight="1">
+    <row r="307" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A307" s="1">
         <v>1309</v>
       </c>
@@ -13961,7 +14100,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="15.75" customHeight="1">
+    <row r="308" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A308" s="1">
         <v>1314</v>
       </c>
@@ -13984,7 +14123,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="15.75" customHeight="1">
+    <row r="309" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A309" s="1">
         <v>1352</v>
       </c>
@@ -14007,7 +14146,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="310" spans="1:7" ht="15.75" customHeight="1">
+    <row r="310" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A310" s="1">
         <v>1429</v>
       </c>
@@ -14027,10 +14166,10 @@
         <v>376</v>
       </c>
       <c r="G310" s="8" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="311" spans="1:7" ht="15.75" customHeight="1">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A311" s="1">
         <v>1430</v>
       </c>
@@ -14050,10 +14189,10 @@
         <v>376</v>
       </c>
       <c r="G311" s="8" t="s">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="312" spans="1:7" ht="15.75" customHeight="1">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A312" s="1">
         <v>1440</v>
       </c>
@@ -14076,7 +14215,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="313" spans="1:7" ht="15.75" customHeight="1">
+    <row r="313" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A313" s="1">
         <v>1441</v>
       </c>
@@ -14099,7 +14238,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="314" spans="1:7" ht="15.75" customHeight="1">
+    <row r="314" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A314" s="1">
         <v>1493</v>
       </c>
@@ -14122,7 +14261,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="315" spans="1:7" ht="15.75" customHeight="1">
+    <row r="315" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A315" s="1">
         <v>1518</v>
       </c>
@@ -14145,7 +14284,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="316" spans="1:7" ht="15.75" customHeight="1">
+    <row r="316" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A316" s="1">
         <v>1644</v>
       </c>
@@ -16808,7 +16947,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="449" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A449" s="1">
         <v>1641</v>
       </c>
@@ -16828,7 +16967,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="450" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A450" s="1">
         <v>1646</v>
       </c>
@@ -16848,7 +16987,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="451" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A451" s="1">
         <v>1647</v>
       </c>
@@ -16868,7 +17007,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="452" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A452" s="1">
         <v>1654</v>
       </c>
@@ -16888,7 +17027,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="453" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A453" s="1">
         <v>1662</v>
       </c>
@@ -16908,7 +17047,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="454" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A454" s="1">
         <v>1675</v>
       </c>
@@ -16928,7 +17067,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="455" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A455" s="1">
         <v>1682</v>
       </c>
@@ -16948,7 +17087,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="456" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A456" s="1">
         <v>1687</v>
       </c>
@@ -16968,7 +17107,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="457" spans="1:7" ht="15.75" customHeight="1">
       <c r="A457" s="1">
         <v>25</v>
       </c>
@@ -16987,8 +17126,11 @@
       <c r="F457" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G457" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" ht="15.75" customHeight="1">
       <c r="A458" s="1">
         <v>71</v>
       </c>
@@ -17007,8 +17149,11 @@
       <c r="F458" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G458" s="10" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" ht="15.75" customHeight="1">
       <c r="A459" s="1">
         <v>73</v>
       </c>
@@ -17027,8 +17172,11 @@
       <c r="F459" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G459" s="11" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" ht="15.75" customHeight="1">
       <c r="A460" s="1">
         <v>90</v>
       </c>
@@ -17047,8 +17195,11 @@
       <c r="F460" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G460" s="10" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" ht="15.75" customHeight="1">
       <c r="A461" s="1">
         <v>97</v>
       </c>
@@ -17067,8 +17218,11 @@
       <c r="F461" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G461" s="8" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" ht="15.75" customHeight="1">
       <c r="A462" s="1">
         <v>98</v>
       </c>
@@ -17087,8 +17241,11 @@
       <c r="F462" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G462" s="8" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" ht="15.75" customHeight="1">
       <c r="A463" s="1">
         <v>157</v>
       </c>
@@ -17107,8 +17264,11 @@
       <c r="F463" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G463" s="8" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" ht="15.75" customHeight="1">
       <c r="A464" s="1">
         <v>199</v>
       </c>
@@ -17127,8 +17287,11 @@
       <c r="F464" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="465" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G464" s="8" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" ht="15.75" customHeight="1">
       <c r="A465" s="1">
         <v>200</v>
       </c>
@@ -17147,8 +17310,11 @@
       <c r="F465" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="466" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G465" s="8" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" ht="15.75" customHeight="1">
       <c r="A466" s="1">
         <v>248</v>
       </c>
@@ -17167,8 +17333,11 @@
       <c r="F466" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="467" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G466" s="11" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" ht="15.75" customHeight="1">
       <c r="A467" s="1">
         <v>268</v>
       </c>
@@ -17187,11 +17356,11 @@
       <c r="F467" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G467" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="468" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G467" s="11" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" ht="15.75" customHeight="1">
       <c r="A468" s="1">
         <v>271</v>
       </c>
@@ -17210,8 +17379,11 @@
       <c r="F468" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="469" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G468" s="11" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" ht="15.75" customHeight="1">
       <c r="A469" s="1">
         <v>275</v>
       </c>
@@ -17230,8 +17402,11 @@
       <c r="F469" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="470" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G469" s="8" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" ht="15.75" customHeight="1">
       <c r="A470" s="1">
         <v>276</v>
       </c>
@@ -17241,8 +17416,8 @@
       <c r="C470" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D470" s="2" t="s">
-        <v>6</v>
+      <c r="D470" s="14" t="s">
+        <v>2221</v>
       </c>
       <c r="E470" s="2" t="s">
         <v>7</v>
@@ -17250,8 +17425,11 @@
       <c r="F470" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="471" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G470" s="11" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" ht="15.75" customHeight="1">
       <c r="A471" s="1">
         <v>277</v>
       </c>
@@ -17270,8 +17448,11 @@
       <c r="F471" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="472" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G471" s="8" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" ht="15.75" customHeight="1">
       <c r="A472" s="1">
         <v>285</v>
       </c>
@@ -17290,8 +17471,11 @@
       <c r="F472" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="473" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G472" s="11" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" ht="15.75" customHeight="1">
       <c r="A473" s="1">
         <v>286</v>
       </c>
@@ -17310,8 +17494,11 @@
       <c r="F473" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="474" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G473" s="11" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" ht="15.75" customHeight="1">
       <c r="A474" s="1">
         <v>287</v>
       </c>
@@ -17330,8 +17517,11 @@
       <c r="F474" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="475" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G474" s="11" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" ht="15.75" customHeight="1">
       <c r="A475" s="1">
         <v>288</v>
       </c>
@@ -17350,8 +17540,11 @@
       <c r="F475" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="476" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G475" s="11" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" ht="15.75" customHeight="1">
       <c r="A476" s="1">
         <v>308</v>
       </c>
@@ -17370,8 +17563,11 @@
       <c r="F476" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="477" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G476" s="10" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" ht="15.75" customHeight="1">
       <c r="A477" s="1">
         <v>309</v>
       </c>
@@ -17390,8 +17586,11 @@
       <c r="F477" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="478" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G477" s="10" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" ht="15.75" customHeight="1">
       <c r="A478" s="1">
         <v>318</v>
       </c>
@@ -17410,8 +17609,11 @@
       <c r="F478" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="479" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G478" s="8" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" ht="15.75" customHeight="1">
       <c r="A479" s="1">
         <v>351</v>
       </c>
@@ -17430,11 +17632,11 @@
       <c r="F479" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="G479" s="10" t="s">
-        <v>2198</v>
-      </c>
-    </row>
-    <row r="480" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G479" s="12" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" ht="15.75" customHeight="1">
       <c r="A480" s="1">
         <v>352</v>
       </c>
@@ -17453,8 +17655,11 @@
       <c r="F480" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="481" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G480" s="12" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" ht="15.75" customHeight="1">
       <c r="A481" s="1">
         <v>353</v>
       </c>
@@ -17473,8 +17678,11 @@
       <c r="F481" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="482" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G481" s="12" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" ht="15.75" customHeight="1">
       <c r="A482" s="1">
         <v>370</v>
       </c>
@@ -17493,11 +17701,11 @@
       <c r="F482" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G482" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="483" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G482" s="7" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" ht="15.75" customHeight="1">
       <c r="A483" s="1">
         <v>371</v>
       </c>
@@ -17516,11 +17724,11 @@
       <c r="F483" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="G483" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="484" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G483" s="7" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" ht="15.75" customHeight="1">
       <c r="A484" s="1">
         <v>421</v>
       </c>
@@ -17539,8 +17747,11 @@
       <c r="F484" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="485" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G484" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" ht="15.75" customHeight="1">
       <c r="A485" s="1">
         <v>422</v>
       </c>
@@ -17559,8 +17770,11 @@
       <c r="F485" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="486" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G485" s="8" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" ht="15.75" customHeight="1">
       <c r="A486" s="1">
         <v>425</v>
       </c>
@@ -17579,8 +17793,11 @@
       <c r="F486" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="487" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G486" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" ht="15.75" customHeight="1">
       <c r="A487" s="1">
         <v>439</v>
       </c>
@@ -17599,11 +17816,11 @@
       <c r="F487" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G487" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="488" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G487" s="14" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" ht="15.75" customHeight="1">
       <c r="A488" s="1">
         <v>461</v>
       </c>
@@ -17622,8 +17839,12 @@
       <c r="F488" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="489" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G488" s="8" t="s">
+        <v>2209</v>
+      </c>
+      <c r="H488" s="10"/>
+    </row>
+    <row r="489" spans="1:8" ht="15.75" customHeight="1">
       <c r="A489" s="1">
         <v>492</v>
       </c>
@@ -17643,10 +17864,11 @@
         <v>655</v>
       </c>
       <c r="G489" s="8" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="490" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+        <v>2210</v>
+      </c>
+      <c r="H489" s="8"/>
+    </row>
+    <row r="490" spans="1:8" ht="15.75" customHeight="1">
       <c r="A490" s="1">
         <v>493</v>
       </c>
@@ -17666,10 +17888,11 @@
         <v>655</v>
       </c>
       <c r="G490" s="8" t="s">
-        <v>2199</v>
-      </c>
-    </row>
-    <row r="491" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+        <v>2210</v>
+      </c>
+      <c r="H490" s="8"/>
+    </row>
+    <row r="491" spans="1:8" ht="15.75" customHeight="1">
       <c r="A491" s="1">
         <v>649</v>
       </c>
@@ -17688,8 +17911,12 @@
       <c r="F491" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="492" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G491" s="8" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H491" s="8"/>
+    </row>
+    <row r="492" spans="1:8" ht="15.75" customHeight="1">
       <c r="A492" s="1">
         <v>651</v>
       </c>
@@ -17708,11 +17935,12 @@
       <c r="F492" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="G492" s="10" t="s">
-        <v>2201</v>
-      </c>
-    </row>
-    <row r="493" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G492" s="8" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H492" s="8"/>
+    </row>
+    <row r="493" spans="1:8" ht="15.75" customHeight="1">
       <c r="A493" s="1">
         <v>700</v>
       </c>
@@ -17731,8 +17959,12 @@
       <c r="F493" s="2" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="494" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G493" s="8" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H493" s="8"/>
+    </row>
+    <row r="494" spans="1:8" ht="15.75" customHeight="1">
       <c r="A494" s="1">
         <v>704</v>
       </c>
@@ -17751,8 +17983,12 @@
       <c r="F494" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="495" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G494" s="13" t="s">
+        <v>2203</v>
+      </c>
+      <c r="H494" s="8"/>
+    </row>
+    <row r="495" spans="1:8" ht="15.75" customHeight="1">
       <c r="A495" s="1">
         <v>705</v>
       </c>
@@ -17771,8 +18007,12 @@
       <c r="F495" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="496" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G495" s="13" t="s">
+        <v>2203</v>
+      </c>
+      <c r="H495" s="8"/>
+    </row>
+    <row r="496" spans="1:8" ht="15.75" customHeight="1">
       <c r="A496" s="1">
         <v>717</v>
       </c>
@@ -17791,8 +18031,11 @@
       <c r="F496" s="2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="497" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G496" s="13" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" ht="15.75" customHeight="1">
       <c r="A497" s="1">
         <v>724</v>
       </c>
@@ -17811,8 +18054,11 @@
       <c r="F497" s="2" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="498" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G497" s="13" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" ht="15.75" customHeight="1">
       <c r="A498" s="1">
         <v>728</v>
       </c>
@@ -17831,8 +18077,11 @@
       <c r="F498" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="499" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G498" s="13" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" ht="15.75" customHeight="1">
       <c r="A499" s="1">
         <v>765</v>
       </c>
@@ -17851,8 +18100,11 @@
       <c r="F499" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="500" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G499" s="2" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" ht="15.75" customHeight="1">
       <c r="A500" s="1">
         <v>778</v>
       </c>
@@ -17871,8 +18123,11 @@
       <c r="F500" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="501" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G500" s="8" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" ht="15.75" customHeight="1">
       <c r="A501" s="1">
         <v>824</v>
       </c>
@@ -17891,8 +18146,11 @@
       <c r="F501" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="502" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G501" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" ht="15.75" customHeight="1">
       <c r="A502" s="1">
         <v>825</v>
       </c>
@@ -17911,8 +18169,11 @@
       <c r="F502" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="503" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G502" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" ht="15.75" customHeight="1">
       <c r="A503" s="1">
         <v>826</v>
       </c>
@@ -17931,8 +18192,11 @@
       <c r="F503" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="504" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G503" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" ht="15.75" customHeight="1">
       <c r="A504" s="1">
         <v>827</v>
       </c>
@@ -17951,8 +18215,11 @@
       <c r="F504" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="505" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G504" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" ht="15.75" customHeight="1">
       <c r="A505" s="1">
         <v>911</v>
       </c>
@@ -17972,10 +18239,10 @@
         <v>684</v>
       </c>
       <c r="G505" s="8" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="506" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" ht="15.75" customHeight="1">
       <c r="A506" s="1">
         <v>912</v>
       </c>
@@ -17995,10 +18262,10 @@
         <v>684</v>
       </c>
       <c r="G506" s="8" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="507" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" ht="15.75" customHeight="1">
       <c r="A507" s="1">
         <v>913</v>
       </c>
@@ -18018,10 +18285,10 @@
         <v>684</v>
       </c>
       <c r="G507" s="8" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="508" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" ht="15.75" customHeight="1">
       <c r="A508" s="1">
         <v>914</v>
       </c>
@@ -18041,10 +18308,10 @@
         <v>684</v>
       </c>
       <c r="G508" s="8" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="509" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" ht="15.75" customHeight="1">
       <c r="A509" s="1">
         <v>958</v>
       </c>
@@ -18063,8 +18330,11 @@
       <c r="F509" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="510" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G509" s="13" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" ht="15.75" customHeight="1">
       <c r="A510" s="1">
         <v>962</v>
       </c>
@@ -18083,8 +18353,11 @@
       <c r="F510" s="2" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="511" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G510" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" ht="15.75" customHeight="1">
       <c r="A511" s="1">
         <v>1013</v>
       </c>
@@ -18103,8 +18376,11 @@
       <c r="F511" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="512" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G511" s="8" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" ht="15.75" customHeight="1">
       <c r="A512" s="1">
         <v>1014</v>
       </c>
@@ -18123,8 +18399,11 @@
       <c r="F512" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G512" s="8" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" ht="15.75" customHeight="1">
       <c r="A513" s="1">
         <v>1015</v>
       </c>
@@ -18143,8 +18422,11 @@
       <c r="F513" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G513" s="8" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" ht="15.75" customHeight="1">
       <c r="A514" s="1">
         <v>1022</v>
       </c>
@@ -18163,8 +18445,11 @@
       <c r="F514" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G514" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" ht="15.75" customHeight="1">
       <c r="A515" s="1">
         <v>1023</v>
       </c>
@@ -18183,8 +18468,11 @@
       <c r="F515" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G515" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" ht="15.75" customHeight="1">
       <c r="A516" s="1">
         <v>1024</v>
       </c>
@@ -18203,8 +18491,11 @@
       <c r="F516" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G516" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="15.75" customHeight="1">
       <c r="A517" s="1">
         <v>1025</v>
       </c>
@@ -18223,8 +18514,11 @@
       <c r="F517" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G517" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" ht="15.75" customHeight="1">
       <c r="A518" s="1">
         <v>1044</v>
       </c>
@@ -18243,8 +18537,11 @@
       <c r="F518" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G518" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" ht="15.75" customHeight="1">
       <c r="A519" s="1">
         <v>1045</v>
       </c>
@@ -18263,8 +18560,11 @@
       <c r="F519" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G519" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" ht="15.75" customHeight="1">
       <c r="A520" s="1">
         <v>1046</v>
       </c>
@@ -18283,8 +18583,11 @@
       <c r="F520" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G520" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="15.75" customHeight="1">
       <c r="A521" s="1">
         <v>1048</v>
       </c>
@@ -18303,8 +18606,11 @@
       <c r="F521" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G521" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" ht="15.75" customHeight="1">
       <c r="A522" s="1">
         <v>1049</v>
       </c>
@@ -18323,8 +18629,11 @@
       <c r="F522" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="523" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G522" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" ht="15.75" customHeight="1">
       <c r="A523" s="1">
         <v>1058</v>
       </c>
@@ -18343,8 +18652,11 @@
       <c r="F523" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G523" s="13" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" ht="15.75" customHeight="1">
       <c r="A524" s="1">
         <v>1073</v>
       </c>
@@ -18363,8 +18675,11 @@
       <c r="F524" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G524" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" ht="15.75" customHeight="1">
       <c r="A525" s="1">
         <v>1074</v>
       </c>
@@ -18383,8 +18698,11 @@
       <c r="F525" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="526" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G525" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" ht="15.75" customHeight="1">
       <c r="A526" s="1">
         <v>1075</v>
       </c>
@@ -18403,8 +18721,11 @@
       <c r="F526" s="4" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G526" s="13" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" ht="15.75" customHeight="1">
       <c r="A527" s="1">
         <v>1087</v>
       </c>
@@ -18423,8 +18744,11 @@
       <c r="F527" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G527" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" ht="15.75" customHeight="1">
       <c r="A528" s="1">
         <v>1088</v>
       </c>
@@ -18443,8 +18767,11 @@
       <c r="F528" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G528" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" ht="15.75" customHeight="1">
       <c r="A529" s="1">
         <v>1090</v>
       </c>
@@ -18463,8 +18790,11 @@
       <c r="F529" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G529" s="13" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" ht="15.75" customHeight="1">
       <c r="A530" s="1">
         <v>1095</v>
       </c>
@@ -18483,8 +18813,11 @@
       <c r="F530" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G530" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" ht="15.75" customHeight="1">
       <c r="A531" s="1">
         <v>1096</v>
       </c>
@@ -18503,8 +18836,11 @@
       <c r="F531" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G531" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" ht="15.75" customHeight="1">
       <c r="A532" s="1">
         <v>1108</v>
       </c>
@@ -18523,8 +18859,11 @@
       <c r="F532" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="533" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G532" s="13" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" ht="15.75" customHeight="1">
       <c r="A533" s="1">
         <v>1109</v>
       </c>
@@ -18543,8 +18882,11 @@
       <c r="F533" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G533" s="13" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" ht="15.75" customHeight="1">
       <c r="A534" s="1">
         <v>1133</v>
       </c>
@@ -18563,8 +18905,11 @@
       <c r="F534" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G534" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" ht="15.75" customHeight="1">
       <c r="A535" s="1">
         <v>1134</v>
       </c>
@@ -18583,8 +18928,11 @@
       <c r="F535" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G535" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" ht="15.75" customHeight="1">
       <c r="A536" s="1">
         <v>1148</v>
       </c>
@@ -18603,8 +18951,11 @@
       <c r="F536" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G536" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" ht="15.75" customHeight="1">
       <c r="A537" s="1">
         <v>1176</v>
       </c>
@@ -18623,8 +18974,11 @@
       <c r="F537" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G537" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" ht="15.75" customHeight="1">
       <c r="A538" s="1">
         <v>1177</v>
       </c>
@@ -18643,8 +18997,11 @@
       <c r="F538" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G538" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" ht="15.75" customHeight="1">
       <c r="A539" s="1">
         <v>1179</v>
       </c>
@@ -18663,8 +19020,11 @@
       <c r="F539" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G539" s="13" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" ht="15.75" customHeight="1">
       <c r="A540" s="1">
         <v>1190</v>
       </c>
@@ -18683,8 +19043,11 @@
       <c r="F540" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G540" s="13" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" ht="15.75" customHeight="1">
       <c r="A541" s="1">
         <v>1191</v>
       </c>
@@ -18703,11 +19066,11 @@
       <c r="F541" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="G541" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="542" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G541" s="9" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" ht="15.75" customHeight="1">
       <c r="A542" s="1">
         <v>1229</v>
       </c>
@@ -18726,8 +19089,11 @@
       <c r="F542" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G542" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" ht="15.75" customHeight="1">
       <c r="A543" s="1">
         <v>1230</v>
       </c>
@@ -18746,8 +19112,11 @@
       <c r="F543" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="544" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G543" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="15.75" customHeight="1">
       <c r="A544" s="1">
         <v>1231</v>
       </c>
@@ -18766,8 +19135,11 @@
       <c r="F544" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="545" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G544" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="15.75" customHeight="1">
       <c r="A545" s="1">
         <v>1244</v>
       </c>
@@ -18786,8 +19158,11 @@
       <c r="F545" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="546" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G545" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" ht="15.75" customHeight="1">
       <c r="A546" s="1">
         <v>1245</v>
       </c>
@@ -18806,8 +19181,11 @@
       <c r="F546" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="547" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G546" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" ht="15.75" customHeight="1">
       <c r="A547" s="1">
         <v>1246</v>
       </c>
@@ -18826,8 +19204,11 @@
       <c r="F547" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="548" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G547" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="15.75" customHeight="1">
       <c r="A548" s="1">
         <v>1247</v>
       </c>
@@ -18846,8 +19227,11 @@
       <c r="F548" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="549" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G548" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" ht="15.75" customHeight="1">
       <c r="A549" s="1">
         <v>1248</v>
       </c>
@@ -18866,8 +19250,11 @@
       <c r="F549" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="550" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G549" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" ht="15.75" customHeight="1">
       <c r="A550" s="1">
         <v>1249</v>
       </c>
@@ -18886,8 +19273,11 @@
       <c r="F550" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="551" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G550" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="15.75" customHeight="1">
       <c r="A551" s="1">
         <v>1256</v>
       </c>
@@ -18906,8 +19296,11 @@
       <c r="F551" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="552" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G551" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="15.75" customHeight="1">
       <c r="A552" s="1">
         <v>1257</v>
       </c>
@@ -18926,8 +19319,11 @@
       <c r="F552" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="553" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G552" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="15.75" customHeight="1">
       <c r="A553" s="1">
         <v>1258</v>
       </c>
@@ -18946,8 +19342,11 @@
       <c r="F553" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="554" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G553" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="15.75" customHeight="1">
       <c r="A554" s="1">
         <v>1275</v>
       </c>
@@ -18966,8 +19365,11 @@
       <c r="F554" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="555" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G554" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="15.75" customHeight="1">
       <c r="A555" s="1">
         <v>1276</v>
       </c>
@@ -18986,8 +19388,11 @@
       <c r="F555" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="556" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G555" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="15.75" customHeight="1">
       <c r="A556" s="1">
         <v>1277</v>
       </c>
@@ -19006,8 +19411,11 @@
       <c r="F556" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="557" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G556" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="15.75" customHeight="1">
       <c r="A557" s="1">
         <v>1278</v>
       </c>
@@ -19026,8 +19434,11 @@
       <c r="F557" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="558" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G557" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="15.75" customHeight="1">
       <c r="A558" s="1">
         <v>1285</v>
       </c>
@@ -19046,8 +19457,11 @@
       <c r="F558" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="559" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G558" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" ht="15.75" customHeight="1">
       <c r="A559" s="1">
         <v>1296</v>
       </c>
@@ -19066,8 +19480,11 @@
       <c r="F559" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="560" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G559" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="15.75" customHeight="1">
       <c r="A560" s="1">
         <v>1297</v>
       </c>
@@ -19086,8 +19503,11 @@
       <c r="F560" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="561" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G560" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" ht="15.75" customHeight="1">
       <c r="A561" s="1">
         <v>1298</v>
       </c>
@@ -19106,8 +19526,11 @@
       <c r="F561" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G561" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" ht="15.75" customHeight="1">
       <c r="A562" s="1">
         <v>1302</v>
       </c>
@@ -19126,13 +19549,16 @@
       <c r="F562" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G562" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" ht="15.75" customHeight="1">
       <c r="A563" s="1">
         <v>1303</v>
       </c>
       <c r="B563" s="7" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="C563" s="2" t="s">
         <v>31</v>
@@ -19147,10 +19573,10 @@
         <v>323</v>
       </c>
       <c r="G563" s="8" t="s">
-        <v>2204</v>
-      </c>
-    </row>
-    <row r="564" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" ht="15.75" customHeight="1">
       <c r="A564" s="1">
         <v>1305</v>
       </c>
@@ -19169,8 +19595,11 @@
       <c r="F564" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G564" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" ht="15.75" customHeight="1">
       <c r="A565" s="1">
         <v>1311</v>
       </c>
@@ -19189,8 +19618,11 @@
       <c r="F565" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="566" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G565" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" ht="15.75" customHeight="1">
       <c r="A566" s="1">
         <v>1312</v>
       </c>
@@ -19209,8 +19641,11 @@
       <c r="F566" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="567" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G566" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" ht="15.75" customHeight="1">
       <c r="A567" s="1">
         <v>1331</v>
       </c>
@@ -19229,8 +19664,11 @@
       <c r="F567" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G567" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" ht="15.75" customHeight="1">
       <c r="A568" s="1">
         <v>1336</v>
       </c>
@@ -19249,8 +19687,11 @@
       <c r="F568" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="569" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G568" s="8" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" ht="15.75" customHeight="1">
       <c r="A569" s="1">
         <v>1337</v>
       </c>
@@ -19269,8 +19710,11 @@
       <c r="F569" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="570" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G569" s="8" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" ht="15.75" customHeight="1">
       <c r="A570" s="1">
         <v>1338</v>
       </c>
@@ -19289,8 +19733,11 @@
       <c r="F570" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="571" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G570" s="8" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" ht="15.75" customHeight="1">
       <c r="A571" s="1">
         <v>1339</v>
       </c>
@@ -19309,8 +19756,11 @@
       <c r="F571" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="572" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G571" s="8" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" ht="15.75" customHeight="1">
       <c r="A572" s="1">
         <v>1340</v>
       </c>
@@ -19329,8 +19779,11 @@
       <c r="F572" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="573" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G572" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" ht="15.75" customHeight="1">
       <c r="A573" s="1">
         <v>1341</v>
       </c>
@@ -19349,8 +19802,11 @@
       <c r="F573" s="2" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="574" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G573" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" ht="15.75" customHeight="1">
       <c r="A574" s="1">
         <v>1344</v>
       </c>
@@ -19369,8 +19825,11 @@
       <c r="F574" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="575" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G574" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" ht="15.75" customHeight="1">
       <c r="A575" s="1">
         <v>1345</v>
       </c>
@@ -19389,8 +19848,11 @@
       <c r="F575" s="2" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="576" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G575" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" ht="15.75" customHeight="1">
       <c r="A576" s="1">
         <v>1350</v>
       </c>
@@ -19409,8 +19871,11 @@
       <c r="F576" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="577" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G576" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" ht="15.75" customHeight="1">
       <c r="A577" s="1">
         <v>1359</v>
       </c>
@@ -19429,8 +19894,11 @@
       <c r="F577" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="578" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G577" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" ht="15.75" customHeight="1">
       <c r="A578" s="1">
         <v>1360</v>
       </c>
@@ -19449,8 +19917,11 @@
       <c r="F578" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="579" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G578" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" ht="15.75" customHeight="1">
       <c r="A579" s="1">
         <v>1361</v>
       </c>
@@ -19469,8 +19940,11 @@
       <c r="F579" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="580" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G579" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" ht="15.75" customHeight="1">
       <c r="A580" s="1">
         <v>1362</v>
       </c>
@@ -19489,8 +19963,11 @@
       <c r="F580" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="581" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G580" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" ht="15.75" customHeight="1">
       <c r="A581" s="1">
         <v>1363</v>
       </c>
@@ -19509,8 +19986,11 @@
       <c r="F581" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="582" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G581" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" ht="15.75" customHeight="1">
       <c r="A582" s="1">
         <v>1364</v>
       </c>
@@ -19529,8 +20009,11 @@
       <c r="F582" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="583" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G582" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" ht="15.75" customHeight="1">
       <c r="A583" s="1">
         <v>1365</v>
       </c>
@@ -19549,8 +20032,11 @@
       <c r="F583" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="584" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G583" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" ht="15.75" customHeight="1">
       <c r="A584" s="1">
         <v>1366</v>
       </c>
@@ -19569,8 +20055,11 @@
       <c r="F584" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="585" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G584" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" ht="15.75" customHeight="1">
       <c r="A585" s="1">
         <v>1367</v>
       </c>
@@ -19589,8 +20078,11 @@
       <c r="F585" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="586" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G585" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" ht="15.75" customHeight="1">
       <c r="A586" s="1">
         <v>1377</v>
       </c>
@@ -19609,8 +20101,11 @@
       <c r="F586" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="587" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G586" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" ht="15.75" customHeight="1">
       <c r="A587" s="1">
         <v>1378</v>
       </c>
@@ -19629,8 +20124,11 @@
       <c r="F587" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="588" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G587" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" ht="15.75" customHeight="1">
       <c r="A588" s="1">
         <v>1379</v>
       </c>
@@ -19649,8 +20147,11 @@
       <c r="F588" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="589" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G588" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" ht="15.75" customHeight="1">
       <c r="A589" s="1">
         <v>1382</v>
       </c>
@@ -19669,8 +20170,11 @@
       <c r="F589" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="590" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G589" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" ht="15.75" customHeight="1">
       <c r="A590" s="1">
         <v>1410</v>
       </c>
@@ -19689,8 +20193,11 @@
       <c r="F590" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="591" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G590" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" ht="15.75" customHeight="1">
       <c r="A591" s="1">
         <v>1415</v>
       </c>
@@ -19709,8 +20216,11 @@
       <c r="F591" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="592" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G591" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" ht="15.75" customHeight="1">
       <c r="A592" s="1">
         <v>1416</v>
       </c>
@@ -19729,8 +20239,11 @@
       <c r="F592" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="593" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G592" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" ht="15.75" customHeight="1">
       <c r="A593" s="1">
         <v>1423</v>
       </c>
@@ -19749,8 +20262,11 @@
       <c r="F593" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="594" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G593" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" ht="15.75" customHeight="1">
       <c r="A594" s="1">
         <v>1453</v>
       </c>
@@ -19769,8 +20285,11 @@
       <c r="F594" s="2" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="595" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G594" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" ht="15.75" customHeight="1">
       <c r="A595" s="1">
         <v>1456</v>
       </c>
@@ -19789,8 +20308,11 @@
       <c r="F595" s="4" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="596" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G595" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" ht="15.75" customHeight="1">
       <c r="A596" s="1">
         <v>1457</v>
       </c>
@@ -19809,8 +20331,11 @@
       <c r="F596" s="4" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="597" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G596" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" ht="15.75" customHeight="1">
       <c r="A597" s="1">
         <v>1461</v>
       </c>
@@ -19829,8 +20354,11 @@
       <c r="F597" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="598" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G597" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" ht="15.75" customHeight="1">
       <c r="A598" s="1">
         <v>1462</v>
       </c>
@@ -19849,8 +20377,11 @@
       <c r="F598" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="599" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G598" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" ht="15.75" customHeight="1">
       <c r="A599" s="1">
         <v>1463</v>
       </c>
@@ -19869,11 +20400,11 @@
       <c r="F599" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="G599" s="2" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="600" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G599" s="7" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" ht="15.75" customHeight="1">
       <c r="A600" s="1">
         <v>1497</v>
       </c>
@@ -19892,8 +20423,11 @@
       <c r="F600" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="601" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G600" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" ht="15.75" customHeight="1">
       <c r="A601" s="1">
         <v>1498</v>
       </c>
@@ -19912,8 +20446,11 @@
       <c r="F601" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="602" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G601" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" ht="15.75" customHeight="1">
       <c r="A602" s="1">
         <v>1499</v>
       </c>
@@ -19932,8 +20469,11 @@
       <c r="F602" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="603" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G602" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" ht="15.75" customHeight="1">
       <c r="A603" s="1">
         <v>1509</v>
       </c>
@@ -19952,8 +20492,11 @@
       <c r="F603" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="604" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G603" s="8" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" ht="15.75" customHeight="1">
       <c r="A604" s="1">
         <v>1510</v>
       </c>
@@ -19972,8 +20515,11 @@
       <c r="F604" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="605" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G604" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" ht="15.75" customHeight="1">
       <c r="A605" s="1">
         <v>1511</v>
       </c>
@@ -19992,8 +20538,11 @@
       <c r="F605" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="606" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G605" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" ht="15.75" customHeight="1">
       <c r="A606" s="1">
         <v>1535</v>
       </c>
@@ -20012,8 +20561,11 @@
       <c r="F606" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="607" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G606" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" ht="15.75" customHeight="1">
       <c r="A607" s="1">
         <v>1536</v>
       </c>
@@ -20032,8 +20584,11 @@
       <c r="F607" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="608" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G607" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" ht="15.75" customHeight="1">
       <c r="A608" s="1">
         <v>1548</v>
       </c>
@@ -20052,8 +20607,11 @@
       <c r="F608" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="609" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G608" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" ht="15.75" customHeight="1">
       <c r="A609" s="1">
         <v>1549</v>
       </c>
@@ -20072,8 +20630,11 @@
       <c r="F609" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="610" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G609" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" ht="15.75" customHeight="1">
       <c r="A610" s="1">
         <v>1552</v>
       </c>
@@ -20092,8 +20653,11 @@
       <c r="F610" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="611" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G610" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" ht="15.75" customHeight="1">
       <c r="A611" s="1">
         <v>1553</v>
       </c>
@@ -20112,8 +20676,11 @@
       <c r="F611" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="612" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G611" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" ht="15.75" customHeight="1">
       <c r="A612" s="1">
         <v>1554</v>
       </c>
@@ -20132,8 +20699,11 @@
       <c r="F612" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="613" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G612" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" ht="15.75" customHeight="1">
       <c r="A613" s="1">
         <v>1555</v>
       </c>
@@ -20152,8 +20722,11 @@
       <c r="F613" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="614" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G613" s="13" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" ht="15.75" customHeight="1">
       <c r="A614" s="1">
         <v>1563</v>
       </c>
@@ -20172,11 +20745,11 @@
       <c r="F614" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="G614" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="615" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G614" s="9" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" ht="15.75" customHeight="1">
       <c r="A615" s="1">
         <v>1600</v>
       </c>
@@ -20195,8 +20768,11 @@
       <c r="F615" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="616" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G615" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" ht="15.75" customHeight="1">
       <c r="A616" s="1">
         <v>1608</v>
       </c>
@@ -20213,13 +20789,13 @@
         <v>704</v>
       </c>
       <c r="F616" s="7" t="s">
-        <v>2202</v>
-      </c>
-      <c r="G616" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="617" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+        <v>2197</v>
+      </c>
+      <c r="G616" s="9" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" ht="15.75" customHeight="1">
       <c r="A617" s="1">
         <v>1613</v>
       </c>
@@ -20238,8 +20814,11 @@
       <c r="F617" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="618" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G617" s="8" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" ht="15.75" customHeight="1">
       <c r="A618" s="1">
         <v>1614</v>
       </c>
@@ -20258,8 +20837,11 @@
       <c r="F618" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="619" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G618" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" ht="15.75" customHeight="1">
       <c r="A619" s="1">
         <v>1615</v>
       </c>
@@ -20278,8 +20860,11 @@
       <c r="F619" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="620" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G619" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" ht="15.75" customHeight="1">
       <c r="A620" s="1">
         <v>1616</v>
       </c>
@@ -20298,8 +20883,11 @@
       <c r="F620" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="621" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G620" s="8" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" ht="15.75" customHeight="1">
       <c r="A621" s="1">
         <v>1617</v>
       </c>
@@ -20318,8 +20906,11 @@
       <c r="F621" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="622" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+      <c r="G621" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" ht="15.75" customHeight="1">
       <c r="A622" s="1">
         <v>1624</v>
       </c>
@@ -20339,10 +20930,10 @@
         <v>633</v>
       </c>
       <c r="G622" s="8" t="s">
-        <v>2197</v>
-      </c>
-    </row>
-    <row r="623" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" ht="15.75" customHeight="1">
       <c r="A623" s="1">
         <v>1636</v>
       </c>
@@ -20362,10 +20953,10 @@
         <v>2187</v>
       </c>
       <c r="G623" s="8" t="s">
-        <v>2189</v>
-      </c>
-    </row>
-    <row r="624" spans="1:7" ht="15.75" hidden="1" customHeight="1">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" ht="15.75" customHeight="1">
       <c r="A624" s="1">
         <v>1637</v>
       </c>
@@ -20384,8 +20975,11 @@
       <c r="F624" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="625" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G624" s="13" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="625" spans="1:7" ht="15.75" customHeight="1">
       <c r="A625" s="1">
         <v>1688</v>
       </c>
@@ -20404,8 +20998,11 @@
       <c r="F625" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="626" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+      <c r="G625" s="8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="626" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A626" s="1">
         <v>2</v>
       </c>
@@ -20425,7 +21022,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="627" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A627" s="1">
         <v>6</v>
       </c>
@@ -20445,7 +21042,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="628" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A628" s="1">
         <v>8</v>
       </c>
@@ -20465,7 +21062,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="629" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A629" s="1">
         <v>16</v>
       </c>
@@ -20485,7 +21082,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="630" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A630" s="1">
         <v>21</v>
       </c>
@@ -20505,7 +21102,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="631" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A631" s="1">
         <v>24</v>
       </c>
@@ -20525,7 +21122,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="632" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A632" s="1">
         <v>43</v>
       </c>
@@ -20545,7 +21142,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="633" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A633" s="1">
         <v>44</v>
       </c>
@@ -20565,7 +21162,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="634" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A634" s="1">
         <v>45</v>
       </c>
@@ -20585,7 +21182,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="635" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A635" s="1">
         <v>54</v>
       </c>
@@ -20605,7 +21202,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="636" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A636" s="1">
         <v>55</v>
       </c>
@@ -20625,7 +21222,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="637" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A637" s="1">
         <v>68</v>
       </c>
@@ -20645,7 +21242,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="638" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A638" s="1">
         <v>69</v>
       </c>
@@ -20665,7 +21262,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="639" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A639" s="1">
         <v>70</v>
       </c>
@@ -20685,7 +21282,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="15.75" hidden="1" customHeight="1">
+    <row r="640" spans="1:7" ht="15.75" hidden="1" customHeight="1">
       <c r="A640" s="1">
         <v>74</v>
       </c>
@@ -41766,7 +42363,7 @@
   <autoFilter ref="A1:F1693" xr:uid="{72B0D109-78BC-4804-8824-2EB276AB39FC}">
     <filterColumn colId="2">
       <filters>
-        <filter val="건강기능"/>
+        <filter val="생활용품"/>
       </filters>
     </filterColumn>
   </autoFilter>
